--- a/.github/PA9416-Carga Teste.xlsx
+++ b/.github/PA9416-Carga Teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9D9BC9-475E-4ACE-BB2A-5E0D251F6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58EFC87-6C0D-486C-9CEA-CABB627B2340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{D37814EA-F8A4-41AF-915F-CC0B03E9A9B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
   <si>
     <t>PERNR</t>
   </si>
@@ -144,6 +144,78 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>28.12.2025</t>
+  </si>
+  <si>
+    <t>29.12.2024</t>
+  </si>
+  <si>
+    <t>29.12.2025</t>
+  </si>
+  <si>
+    <t>02.01.2026</t>
+  </si>
+  <si>
+    <t>00.00.0000</t>
+  </si>
+  <si>
+    <t>02.12.2026</t>
+  </si>
+  <si>
+    <t>26.12.2026</t>
+  </si>
+  <si>
+    <t>28.02.2025</t>
+  </si>
+  <si>
+    <t>01.03.2024</t>
+  </si>
+  <si>
+    <t>02.02.2026</t>
+  </si>
+  <si>
+    <t>26.02.2026</t>
+  </si>
+  <si>
+    <t>28.12.2024</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>28.10.2025</t>
+  </si>
+  <si>
+    <t>26.11.2025</t>
+  </si>
+  <si>
+    <t>11.02.2025</t>
+  </si>
+  <si>
+    <t>12.02.2024</t>
+  </si>
+  <si>
+    <t>05.01.2026</t>
+  </si>
+  <si>
+    <t>24.01.2026</t>
+  </si>
+  <si>
+    <t>09.03.2025</t>
+  </si>
+  <si>
+    <t>10.03.2024</t>
+  </si>
+  <si>
+    <t>05.05.2025</t>
+  </si>
+  <si>
+    <t>29.05.2025</t>
+  </si>
+  <si>
+    <t>11.04.2025</t>
   </si>
 </sst>
 </file>
@@ -239,18 +311,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -587,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE3FB2E-21E7-4C29-BC17-26B57CB7D675}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,163 +788,183 @@
       <c r="A2" s="5">
         <v>27985</v>
       </c>
-      <c r="B2" s="6">
-        <v>46019</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45655</v>
-      </c>
-      <c r="D2" s="7">
-        <v>30</v>
-      </c>
-      <c r="E2" s="6">
-        <v>46020</v>
-      </c>
-      <c r="F2" s="6">
-        <v>46024</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6">
+        <v>30</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="6">
         <v>5</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="6">
-        <v>46358</v>
-      </c>
-      <c r="N2" s="6">
-        <v>46382</v>
-      </c>
-      <c r="O2" s="7">
+      <c r="M2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="6">
         <v>25</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7" t="s">
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="7">
-        <v>0</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="8">
+      <c r="U2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>31192</v>
       </c>
-      <c r="B3" s="10">
-        <v>45716</v>
-      </c>
-      <c r="C3" s="10">
-        <v>45352</v>
-      </c>
-      <c r="D3" s="11">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10">
-        <v>46020</v>
-      </c>
-      <c r="F3" s="10">
-        <v>46024</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9">
+        <v>30</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11" t="s">
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="10">
-        <v>46055</v>
-      </c>
-      <c r="N3" s="10">
-        <v>46079</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="M3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="9">
         <v>25</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11" t="s">
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="11">
-        <v>0</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="12">
+      <c r="U3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -882,159 +972,183 @@
       <c r="A4" s="5">
         <v>32484</v>
       </c>
-      <c r="B4" s="6">
-        <v>45654</v>
-      </c>
-      <c r="C4" s="6">
-        <v>45289</v>
-      </c>
-      <c r="D4" s="7">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6">
-        <v>45958</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45987</v>
-      </c>
-      <c r="G4" s="7">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>32484</v>
       </c>
-      <c r="B5" s="10">
-        <v>46019</v>
-      </c>
-      <c r="C5" s="10">
-        <v>45655</v>
-      </c>
-      <c r="D5" s="11">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10">
-        <v>46020</v>
-      </c>
-      <c r="F5" s="10">
-        <v>46024</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9">
         <v>5</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11" t="s">
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="10">
-        <v>46358</v>
-      </c>
-      <c r="N5" s="10">
-        <v>46382</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="M5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="9">
         <v>25</v>
       </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11" t="s">
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="11">
-        <v>0</v>
-      </c>
-      <c r="X5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="12">
+      <c r="U5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1042,252 +1156,184 @@
       <c r="A6" s="5">
         <v>32721</v>
       </c>
-      <c r="B6" s="6">
-        <v>45699</v>
-      </c>
-      <c r="C6" s="6">
-        <v>45334</v>
-      </c>
-      <c r="D6" s="7">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6">
-        <v>46027</v>
-      </c>
-      <c r="F6" s="6">
-        <v>46046</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="6">
         <v>20</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>10</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="8">
+      <c r="M6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>34184</v>
       </c>
-      <c r="B7" s="10">
-        <v>45725</v>
-      </c>
-      <c r="C7" s="10">
-        <v>45361</v>
-      </c>
-      <c r="D7" s="11">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10">
-        <v>45782</v>
-      </c>
-      <c r="F7" s="10">
-        <v>45806</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="9">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9">
         <v>25</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="10">
-        <v>45758</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="10">
-        <v>46020</v>
-      </c>
-      <c r="N7" s="10">
-        <v>46024</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="M7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="9">
         <v>5</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11" t="s">
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
+      <c r="R7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="11">
-        <v>0</v>
-      </c>
-      <c r="X7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC7" s="11">
+      <c r="U7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="9">
         <v>5</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AD7" s="10">
         <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>34428</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45693</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45328</v>
-      </c>
-      <c r="D8" s="7">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45724</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45728</v>
-      </c>
-      <c r="G8" s="7">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="6">
-        <v>45712</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="6">
-        <v>45874</v>
-      </c>
-      <c r="N8" s="6">
-        <v>45878</v>
-      </c>
-      <c r="O8" s="7">
-        <v>5</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="6">
-        <v>45853</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="6">
-        <v>45974</v>
-      </c>
-      <c r="V8" s="6">
-        <v>45988</v>
-      </c>
-      <c r="W8" s="7">
-        <v>15</v>
-      </c>
-      <c r="X8" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
